--- a/tp_v3.xlsx
+++ b/tp_v3.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmlorenz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BF81B74-15B4-4550-8C35-1C3BCDAE805C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0720D271-1852-407C-B57C-386AF31BE225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tp_v3" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tp_v3!$A$1:$J$207</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="219">
   <si>
     <t>Nombre</t>
   </si>
@@ -684,6 +687,9 @@
   </si>
   <si>
     <t>Aux</t>
+  </si>
+  <si>
+    <t>Cant Horas</t>
   </si>
 </sst>
 </file>
@@ -1170,12 +1176,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1531,24 +1544,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I207"/>
+  <dimension ref="A1:J207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1561,23 +1573,26 @@
       <c r="D1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1591,24 +1606,27 @@
         <f>C3-C2</f>
         <v>6.9444444444444753E-3</v>
       </c>
-      <c r="E2" s="4">
-        <f>D2*24*60</f>
+      <c r="E2" s="5">
         <v>10.000000000000044</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4">
+        <f>E2/60</f>
+        <v>0.16666666666666741</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1622,24 +1640,27 @@
         <f t="shared" ref="D3:D19" si="0">C4-C3</f>
         <v>6.9444444444444753E-3</v>
       </c>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3:E66" si="1">D3*24*60</f>
+      <c r="E3" s="5">
         <v>10.000000000000044</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F66" si="1">E3/60</f>
+        <v>0.16666666666666741</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1653,24 +1674,27 @@
         <f t="shared" si="0"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
+        <v>19.999999999999929</v>
+      </c>
+      <c r="F4" s="4">
         <f t="shared" si="1"/>
-        <v>19.999999999999929</v>
-      </c>
-      <c r="F4" t="s">
+        <v>0.33333333333333215</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1684,24 +1708,27 @@
         <f t="shared" si="0"/>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
+        <v>20.000000000000089</v>
+      </c>
+      <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>20.000000000000089</v>
-      </c>
-      <c r="F5" t="s">
+        <v>0.33333333333333481</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1715,24 +1742,27 @@
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
+        <v>14.999999999999947</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
-        <v>14.999999999999947</v>
-      </c>
-      <c r="F6" t="s">
+        <v>0.24999999999999911</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1746,24 +1776,27 @@
         <f t="shared" si="0"/>
         <v>3.819444444444442E-2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
+        <v>54.999999999999964</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>54.999999999999964</v>
-      </c>
-      <c r="F7" t="s">
+        <v>0.91666666666666607</v>
+      </c>
+      <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1777,24 +1810,27 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
+        <v>90</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="F8" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1808,24 +1844,27 @@
         <f t="shared" si="0"/>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
+        <v>20.000000000000089</v>
+      </c>
+      <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>20.000000000000089</v>
-      </c>
-      <c r="F9" t="s">
+        <v>0.33333333333333481</v>
+      </c>
+      <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1839,24 +1878,27 @@
         <f t="shared" si="0"/>
         <v>4.8611111111111105E-2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
+        <v>69.999999999999986</v>
+      </c>
+      <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>69.999999999999986</v>
-      </c>
-      <c r="F10" t="s">
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>24</v>
       </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1870,24 +1912,27 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F11" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G11" t="s">
         <v>28</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>29</v>
       </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1901,24 +1946,27 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
+        <v>120.00000000000006</v>
+      </c>
+      <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>120.00000000000006</v>
-      </c>
-      <c r="F12" t="s">
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="G12" t="s">
         <v>30</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>24</v>
       </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1932,24 +1980,27 @@
         <f t="shared" si="0"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
+        <v>19.999999999999929</v>
+      </c>
+      <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>19.999999999999929</v>
-      </c>
-      <c r="F13" t="s">
+        <v>0.33333333333333215</v>
+      </c>
+      <c r="G13" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>26</v>
       </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1963,24 +2014,27 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
+        <v>149.99999999999994</v>
+      </c>
+      <c r="F14" s="4">
         <f t="shared" si="1"/>
-        <v>149.99999999999994</v>
-      </c>
-      <c r="F14" t="s">
+        <v>2.4999999999999991</v>
+      </c>
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>24</v>
       </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1994,24 +2048,27 @@
         <f t="shared" si="0"/>
         <v>6.9444444444445308E-3</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
+        <v>10.000000000000124</v>
+      </c>
+      <c r="F15" s="4">
         <f t="shared" si="1"/>
-        <v>10.000000000000124</v>
-      </c>
-      <c r="F15" t="s">
+        <v>0.16666666666666874</v>
+      </c>
+      <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>14</v>
       </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2025,24 +2082,27 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555469E-2</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
+        <v>79.999999999999872</v>
+      </c>
+      <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>79.999999999999872</v>
-      </c>
-      <c r="F16" t="s">
+        <v>1.3333333333333313</v>
+      </c>
+      <c r="G16" t="s">
         <v>34</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>35</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>17</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2056,24 +2116,27 @@
         <f t="shared" si="0"/>
         <v>3.4722222222222321E-2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
+        <v>50.000000000000142</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>50.000000000000142</v>
-      </c>
-      <c r="F17" t="s">
+        <v>0.8333333333333357</v>
+      </c>
+      <c r="G17" t="s">
         <v>36</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>37</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>17</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2087,24 +2150,27 @@
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
+        <v>49.999999999999986</v>
+      </c>
+      <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>49.999999999999986</v>
-      </c>
-      <c r="F18" t="s">
+        <v>0.83333333333333315</v>
+      </c>
+      <c r="G18" t="s">
         <v>38</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>39</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>17</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2118,24 +2184,27 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F19" s="4">
         <f t="shared" si="1"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F19" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G19" t="s">
         <v>40</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>41</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>17</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2148,24 +2217,27 @@
       <c r="D20" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
+        <v>90</v>
+      </c>
+      <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="F20" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="G20" t="s">
         <v>42</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>43</v>
       </c>
-      <c r="H20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2178,24 +2250,27 @@
       <c r="D21" s="3">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
+        <v>420</v>
+      </c>
+      <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>420</v>
-      </c>
-      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
         <v>44</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>45</v>
       </c>
-      <c r="H21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2209,24 +2284,27 @@
         <f>C23-C22</f>
         <v>6.9444444444444753E-3</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
+        <v>10.000000000000044</v>
+      </c>
+      <c r="F22" s="4">
         <f t="shared" si="1"/>
-        <v>10.000000000000044</v>
-      </c>
-      <c r="F22" t="s">
+        <v>0.16666666666666741</v>
+      </c>
+      <c r="G22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>9</v>
       </c>
-      <c r="H22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2240,24 +2318,27 @@
         <f t="shared" ref="D23:D32" si="2">C24-C23</f>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
+        <v>19.999999999999929</v>
+      </c>
+      <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>19.999999999999929</v>
-      </c>
-      <c r="F23" t="s">
+        <v>0.33333333333333215</v>
+      </c>
+      <c r="G23" t="s">
         <v>13</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>12</v>
       </c>
-      <c r="H23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2271,24 +2352,27 @@
         <f t="shared" si="2"/>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
+        <v>20.000000000000089</v>
+      </c>
+      <c r="F24" s="4">
         <f t="shared" si="1"/>
-        <v>20.000000000000089</v>
-      </c>
-      <c r="F24" t="s">
+        <v>0.33333333333333481</v>
+      </c>
+      <c r="G24" t="s">
         <v>15</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>16</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>17</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2302,24 +2386,27 @@
         <f t="shared" si="2"/>
         <v>0.3333333333333332</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
+        <v>479.99999999999977</v>
+      </c>
+      <c r="F25" s="4">
         <f t="shared" si="1"/>
-        <v>479.99999999999977</v>
-      </c>
-      <c r="F25" t="s">
+        <v>7.9999999999999964</v>
+      </c>
+      <c r="G25" t="s">
         <v>19</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>47</v>
       </c>
-      <c r="H25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -2333,24 +2420,27 @@
         <f t="shared" si="2"/>
         <v>2.7777777777777901E-2</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
+        <v>40.000000000000178</v>
+      </c>
+      <c r="F26" s="4">
         <f t="shared" si="1"/>
-        <v>40.000000000000178</v>
-      </c>
-      <c r="F26" t="s">
+        <v>0.66666666666666963</v>
+      </c>
+      <c r="G26" t="s">
         <v>48</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>49</v>
       </c>
-      <c r="H26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -2364,24 +2454,27 @@
         <f t="shared" si="2"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F27" s="4">
         <f t="shared" si="1"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F27" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G27" t="s">
         <v>50</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>51</v>
       </c>
-      <c r="H27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2395,24 +2488,27 @@
         <f t="shared" si="2"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
+        <v>30.000000000000053</v>
+      </c>
+      <c r="F28" s="4">
         <f t="shared" si="1"/>
-        <v>30.000000000000053</v>
-      </c>
-      <c r="F28" t="s">
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="G28" t="s">
         <v>52</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>53</v>
       </c>
-      <c r="H28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2426,24 +2522,27 @@
         <f t="shared" si="2"/>
         <v>5.5555555555555469E-2</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
+        <v>79.999999999999872</v>
+      </c>
+      <c r="F29" s="4">
         <f t="shared" si="1"/>
-        <v>79.999999999999872</v>
-      </c>
-      <c r="F29" t="s">
+        <v>1.3333333333333313</v>
+      </c>
+      <c r="G29" t="s">
         <v>34</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>35</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>17</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2457,24 +2556,27 @@
         <f t="shared" si="2"/>
         <v>3.4722222222222321E-2</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
+        <v>50.000000000000142</v>
+      </c>
+      <c r="F30" s="4">
         <f t="shared" si="1"/>
-        <v>50.000000000000142</v>
-      </c>
-      <c r="F30" t="s">
+        <v>0.8333333333333357</v>
+      </c>
+      <c r="G30" t="s">
         <v>36</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>54</v>
       </c>
-      <c r="H30" t="s">
-        <v>10</v>
-      </c>
       <c r="I30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2488,24 +2590,27 @@
         <f t="shared" si="2"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
+        <v>49.999999999999986</v>
+      </c>
+      <c r="F31" s="4">
         <f t="shared" si="1"/>
-        <v>49.999999999999986</v>
-      </c>
-      <c r="F31" t="s">
+        <v>0.83333333333333315</v>
+      </c>
+      <c r="G31" t="s">
         <v>38</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>39</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>17</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2519,24 +2624,27 @@
         <f t="shared" si="2"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F32" s="4">
         <f t="shared" si="1"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F32" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G32" t="s">
         <v>40</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>55</v>
       </c>
-      <c r="H32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2549,24 +2657,27 @@
       <c r="D33" s="3">
         <v>0.36805555555555558</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="5">
+        <v>530</v>
+      </c>
+      <c r="F33" s="4">
         <f t="shared" si="1"/>
-        <v>530</v>
-      </c>
-      <c r="F33" t="s">
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="G33" t="s">
         <v>42</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>45</v>
       </c>
-      <c r="H33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2580,24 +2691,27 @@
         <f>C35-C34</f>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
+        <v>19.999999999999929</v>
+      </c>
+      <c r="F34" s="4">
         <f t="shared" si="1"/>
-        <v>19.999999999999929</v>
-      </c>
-      <c r="F34" t="s">
+        <v>0.33333333333333215</v>
+      </c>
+      <c r="G34" t="s">
         <v>56</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>9</v>
       </c>
-      <c r="H34" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2611,24 +2725,27 @@
         <f t="shared" ref="D35:D49" si="3">C36-C35</f>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="5">
+        <v>15.000000000000027</v>
+      </c>
+      <c r="F35" s="4">
         <f t="shared" si="1"/>
-        <v>15.000000000000027</v>
-      </c>
-      <c r="F35" t="s">
+        <v>0.25000000000000044</v>
+      </c>
+      <c r="G35" t="s">
         <v>57</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>12</v>
       </c>
-      <c r="H35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2642,24 +2759,27 @@
         <f t="shared" si="3"/>
         <v>1.3888888888888895E-2</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="5">
+        <v>20.000000000000007</v>
+      </c>
+      <c r="F36" s="4">
         <f t="shared" si="1"/>
-        <v>20.000000000000007</v>
-      </c>
-      <c r="F36" t="s">
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="G36" t="s">
         <v>58</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>14</v>
       </c>
-      <c r="H36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2673,24 +2793,27 @@
         <f t="shared" si="3"/>
         <v>1.3888888888888895E-2</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="5">
+        <v>20.000000000000007</v>
+      </c>
+      <c r="F37" s="4">
         <f t="shared" si="1"/>
-        <v>20.000000000000007</v>
-      </c>
-      <c r="F37" t="s">
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="G37" t="s">
         <v>59</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>16</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>17</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2704,24 +2827,27 @@
         <f t="shared" si="3"/>
         <v>8.3333333333333037E-3</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="5">
+        <v>11.999999999999957</v>
+      </c>
+      <c r="F38" s="4">
         <f t="shared" si="1"/>
-        <v>11.999999999999957</v>
-      </c>
-      <c r="F38" t="s">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="G38" t="s">
         <v>60</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>20</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>17</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2735,24 +2861,27 @@
         <f t="shared" si="3"/>
         <v>5.2083333333333315E-2</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="5">
+        <v>74.999999999999972</v>
+      </c>
+      <c r="F39" s="4">
         <f t="shared" si="1"/>
-        <v>74.999999999999972</v>
-      </c>
-      <c r="F39" t="s">
+        <v>1.2499999999999996</v>
+      </c>
+      <c r="G39" t="s">
         <v>61</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>22</v>
       </c>
-      <c r="H39" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2766,24 +2895,27 @@
         <f t="shared" si="3"/>
         <v>6.1111111111111116E-2</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="5">
+        <v>88</v>
+      </c>
+      <c r="F40" s="4">
         <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="F40" t="s">
+        <v>1.4666666666666666</v>
+      </c>
+      <c r="G40" t="s">
         <v>62</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>24</v>
       </c>
-      <c r="H40" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2797,24 +2929,27 @@
         <f t="shared" si="3"/>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="5">
+        <v>20.000000000000089</v>
+      </c>
+      <c r="F41" s="4">
         <f t="shared" si="1"/>
-        <v>20.000000000000089</v>
-      </c>
-      <c r="F41" t="s">
+        <v>0.33333333333333481</v>
+      </c>
+      <c r="G41" t="s">
         <v>63</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>26</v>
       </c>
-      <c r="H41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2828,24 +2963,27 @@
         <f t="shared" si="3"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="5">
+        <v>60.000000000000028</v>
+      </c>
+      <c r="F42" s="4">
         <f t="shared" si="1"/>
-        <v>60.000000000000028</v>
-      </c>
-      <c r="F42" t="s">
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="G42" t="s">
         <v>64</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>24</v>
       </c>
-      <c r="H42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2859,24 +2997,27 @@
         <f t="shared" si="3"/>
         <v>4.8611111111111049E-2</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="5">
+        <v>69.999999999999915</v>
+      </c>
+      <c r="F43" s="4">
         <f t="shared" si="1"/>
-        <v>69.999999999999915</v>
-      </c>
-      <c r="F43" t="s">
+        <v>1.1666666666666652</v>
+      </c>
+      <c r="G43" t="s">
         <v>65</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>29</v>
       </c>
-      <c r="H43" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2890,24 +3031,27 @@
         <f t="shared" si="3"/>
         <v>7.6388888888888951E-2</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="5">
+        <v>110.00000000000009</v>
+      </c>
+      <c r="F44" s="4">
         <f t="shared" si="1"/>
-        <v>110.00000000000009</v>
-      </c>
-      <c r="F44" t="s">
+        <v>1.8333333333333348</v>
+      </c>
+      <c r="G44" t="s">
         <v>66</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>24</v>
       </c>
-      <c r="H44" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2921,24 +3065,27 @@
         <f t="shared" si="3"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="5">
+        <v>19.999999999999929</v>
+      </c>
+      <c r="F45" s="4">
         <f t="shared" si="1"/>
-        <v>19.999999999999929</v>
-      </c>
-      <c r="F45" t="s">
+        <v>0.33333333333333215</v>
+      </c>
+      <c r="G45" t="s">
         <v>67</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>26</v>
       </c>
-      <c r="H45" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2952,24 +3099,27 @@
         <f t="shared" si="3"/>
         <v>9.027777777777779E-2</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="5">
+        <v>130.00000000000003</v>
+      </c>
+      <c r="F46" s="4">
         <f t="shared" si="1"/>
-        <v>130.00000000000003</v>
-      </c>
-      <c r="F46" t="s">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="G46" t="s">
         <v>68</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>24</v>
       </c>
-      <c r="H46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2983,24 +3133,27 @@
         <f t="shared" si="3"/>
         <v>0.15277777777777779</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="5">
+        <v>220.00000000000003</v>
+      </c>
+      <c r="F47" s="4">
         <f t="shared" si="1"/>
-        <v>220.00000000000003</v>
-      </c>
-      <c r="F47" t="s">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="G47" t="s">
         <v>69</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>70</v>
       </c>
-      <c r="H47" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -3014,24 +3167,27 @@
         <f t="shared" si="3"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="5">
+        <v>49.999999999999986</v>
+      </c>
+      <c r="F48" s="4">
         <f t="shared" si="1"/>
-        <v>49.999999999999986</v>
-      </c>
-      <c r="F48" t="s">
+        <v>0.83333333333333315</v>
+      </c>
+      <c r="G48" t="s">
         <v>71</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>72</v>
       </c>
-      <c r="H48" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -3045,24 +3201,27 @@
         <f t="shared" si="3"/>
         <v>5.5555555555555469E-2</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="5">
+        <v>79.999999999999872</v>
+      </c>
+      <c r="F49" s="4">
         <f t="shared" si="1"/>
-        <v>79.999999999999872</v>
-      </c>
-      <c r="F49" t="s">
+        <v>1.3333333333333313</v>
+      </c>
+      <c r="G49" t="s">
         <v>73</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>43</v>
       </c>
-      <c r="H49" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -3075,24 +3234,27 @@
       <c r="D50" s="3">
         <v>0.2986111111111111</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="5">
+        <v>429.99999999999994</v>
+      </c>
+      <c r="F50" s="4">
         <f t="shared" si="1"/>
-        <v>429.99999999999994</v>
-      </c>
-      <c r="F50" t="s">
+        <v>7.1666666666666661</v>
+      </c>
+      <c r="G50" t="s">
         <v>74</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>45</v>
       </c>
-      <c r="H50" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -3106,24 +3268,27 @@
         <f>C52-C51</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="5">
+        <v>9.9999999999999645</v>
+      </c>
+      <c r="F51" s="4">
         <f t="shared" si="1"/>
-        <v>9.9999999999999645</v>
-      </c>
-      <c r="F51" t="s">
+        <v>0.16666666666666607</v>
+      </c>
+      <c r="G51" t="s">
         <v>75</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>9</v>
       </c>
-      <c r="H51" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -3137,24 +3302,27 @@
         <f t="shared" ref="D52:D60" si="4">C53-C52</f>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="5">
+        <v>15.000000000000027</v>
+      </c>
+      <c r="F52" s="4">
         <f t="shared" si="1"/>
-        <v>15.000000000000027</v>
-      </c>
-      <c r="F52" t="s">
+        <v>0.25000000000000044</v>
+      </c>
+      <c r="G52" t="s">
         <v>76</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>12</v>
       </c>
-      <c r="H52" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -3168,24 +3336,27 @@
         <f t="shared" si="4"/>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="5">
+        <v>15.000000000000027</v>
+      </c>
+      <c r="F53" s="4">
         <f t="shared" si="1"/>
-        <v>15.000000000000027</v>
-      </c>
-      <c r="F53" t="s">
+        <v>0.25000000000000044</v>
+      </c>
+      <c r="G53" t="s">
         <v>77</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>16</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>17</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -3199,24 +3370,27 @@
         <f t="shared" si="4"/>
         <v>0.3333333333333332</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="5">
+        <v>479.99999999999977</v>
+      </c>
+      <c r="F54" s="4">
         <f t="shared" si="1"/>
-        <v>479.99999999999977</v>
-      </c>
-      <c r="F54" t="s">
+        <v>7.9999999999999964</v>
+      </c>
+      <c r="G54" t="s">
         <v>78</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>47</v>
       </c>
-      <c r="H54" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -3230,24 +3404,27 @@
         <f t="shared" si="4"/>
         <v>2.7777777777777901E-2</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="5">
+        <v>40.000000000000178</v>
+      </c>
+      <c r="F55" s="4">
         <f t="shared" si="1"/>
-        <v>40.000000000000178</v>
-      </c>
-      <c r="F55" t="s">
+        <v>0.66666666666666963</v>
+      </c>
+      <c r="G55" t="s">
         <v>79</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>49</v>
       </c>
-      <c r="H55" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -3261,24 +3438,27 @@
         <f t="shared" si="4"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="5">
+        <v>70.000000000000071</v>
+      </c>
+      <c r="F56" s="4">
         <f t="shared" si="1"/>
-        <v>70.000000000000071</v>
-      </c>
-      <c r="F56" t="s">
+        <v>1.1666666666666679</v>
+      </c>
+      <c r="G56" t="s">
         <v>80</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>51</v>
       </c>
-      <c r="H56" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>46</v>
       </c>
@@ -3292,24 +3472,27 @@
         <f t="shared" si="4"/>
         <v>6.9444444444444309E-2</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="5">
+        <v>99.999999999999801</v>
+      </c>
+      <c r="F57" s="4">
         <f t="shared" si="1"/>
-        <v>99.999999999999801</v>
-      </c>
-      <c r="F57" t="s">
+        <v>1.6666666666666634</v>
+      </c>
+      <c r="G57" t="s">
         <v>81</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>54</v>
       </c>
-      <c r="H57" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>46</v>
       </c>
@@ -3323,24 +3506,27 @@
         <f t="shared" si="4"/>
         <v>3.4722222222222321E-2</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="5">
+        <v>50.000000000000142</v>
+      </c>
+      <c r="F58" s="4">
         <f t="shared" si="1"/>
-        <v>50.000000000000142</v>
-      </c>
-      <c r="F58" t="s">
+        <v>0.8333333333333357</v>
+      </c>
+      <c r="G58" t="s">
         <v>82</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>83</v>
       </c>
-      <c r="H58" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -3354,24 +3540,27 @@
         <f t="shared" si="4"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="5">
+        <v>19.999999999999929</v>
+      </c>
+      <c r="F59" s="4">
         <f t="shared" si="1"/>
-        <v>19.999999999999929</v>
-      </c>
-      <c r="F59" t="s">
+        <v>0.33333333333333215</v>
+      </c>
+      <c r="G59" t="s">
         <v>84</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>85</v>
       </c>
-      <c r="H59" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>46</v>
       </c>
@@ -3385,24 +3574,27 @@
         <f t="shared" si="4"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F60" s="4">
         <f t="shared" si="1"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F60" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G60" t="s">
         <v>86</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>55</v>
       </c>
-      <c r="H60" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -3415,24 +3607,27 @@
       <c r="D61" s="3">
         <v>0.40972222222222227</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="5">
+        <v>590</v>
+      </c>
+      <c r="F61" s="4">
         <f t="shared" si="1"/>
-        <v>590</v>
-      </c>
-      <c r="F61" t="s">
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="G61" t="s">
         <v>87</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>45</v>
       </c>
-      <c r="H61" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -3446,24 +3641,27 @@
         <f>C63-C62</f>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="5">
+        <v>14.999999999999947</v>
+      </c>
+      <c r="F62" s="4">
         <f t="shared" si="1"/>
-        <v>14.999999999999947</v>
-      </c>
-      <c r="F62" t="s">
+        <v>0.24999999999999911</v>
+      </c>
+      <c r="G62" t="s">
         <v>88</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>9</v>
       </c>
-      <c r="H62" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -3477,24 +3675,27 @@
         <f t="shared" ref="D63:D80" si="5">C64-C63</f>
         <v>1.3888888888888895E-2</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="5">
+        <v>20.000000000000007</v>
+      </c>
+      <c r="F63" s="4">
         <f t="shared" si="1"/>
-        <v>20.000000000000007</v>
-      </c>
-      <c r="F63" t="s">
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="G63" t="s">
         <v>89</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>12</v>
       </c>
-      <c r="H63" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -3508,24 +3709,27 @@
         <f t="shared" si="5"/>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="5">
+        <v>15.000000000000027</v>
+      </c>
+      <c r="F64" s="4">
         <f t="shared" si="1"/>
-        <v>15.000000000000027</v>
-      </c>
-      <c r="F64" t="s">
+        <v>0.25000000000000044</v>
+      </c>
+      <c r="G64" t="s">
         <v>90</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>14</v>
       </c>
-      <c r="H64" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -3539,24 +3743,27 @@
         <f t="shared" si="5"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="5">
+        <v>19.999999999999929</v>
+      </c>
+      <c r="F65" s="4">
         <f t="shared" si="1"/>
-        <v>19.999999999999929</v>
-      </c>
-      <c r="F65" t="s">
+        <v>0.33333333333333215</v>
+      </c>
+      <c r="G65" t="s">
         <v>91</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>16</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>17</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -3570,24 +3777,27 @@
         <f t="shared" si="5"/>
         <v>9.0277777777778012E-3</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="5">
+        <v>13.000000000000034</v>
+      </c>
+      <c r="F66" s="4">
         <f t="shared" si="1"/>
-        <v>13.000000000000034</v>
-      </c>
-      <c r="F66" t="s">
+        <v>0.21666666666666723</v>
+      </c>
+      <c r="G66" t="s">
         <v>92</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>20</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>17</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -3601,24 +3811,27 @@
         <f t="shared" si="5"/>
         <v>4.6527777777777779E-2</v>
       </c>
-      <c r="E67" s="4">
-        <f t="shared" ref="E67:E130" si="6">D67*24*60</f>
+      <c r="E67" s="5">
         <v>67</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="4">
+        <f t="shared" ref="F67:F130" si="6">E67/60</f>
+        <v>1.1166666666666667</v>
+      </c>
+      <c r="G67" t="s">
         <v>93</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>22</v>
       </c>
-      <c r="H67" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3632,24 +3845,27 @@
         <f t="shared" si="5"/>
         <v>6.5972222222222265E-2</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="5">
+        <v>95.000000000000057</v>
+      </c>
+      <c r="F68" s="4">
         <f t="shared" si="6"/>
-        <v>95.000000000000057</v>
-      </c>
-      <c r="F68" t="s">
+        <v>1.5833333333333344</v>
+      </c>
+      <c r="G68" t="s">
         <v>94</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>24</v>
       </c>
-      <c r="H68" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3663,24 +3879,27 @@
         <f t="shared" si="5"/>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="5">
+        <v>15.000000000000027</v>
+      </c>
+      <c r="F69" s="4">
         <f t="shared" si="6"/>
-        <v>15.000000000000027</v>
-      </c>
-      <c r="F69" t="s">
+        <v>0.25000000000000044</v>
+      </c>
+      <c r="G69" t="s">
         <v>95</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>26</v>
       </c>
-      <c r="H69" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>10</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3694,24 +3913,27 @@
         <f t="shared" si="5"/>
         <v>6.2499999999999944E-2</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="5">
+        <v>89.999999999999915</v>
+      </c>
+      <c r="F70" s="4">
         <f t="shared" si="6"/>
-        <v>89.999999999999915</v>
-      </c>
-      <c r="F70" t="s">
+        <v>1.4999999999999987</v>
+      </c>
+      <c r="G70" t="s">
         <v>96</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>24</v>
       </c>
-      <c r="H70" t="s">
-        <v>10</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>10</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3725,24 +3947,27 @@
         <f t="shared" si="5"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="5">
+        <v>40.000000000000014</v>
+      </c>
+      <c r="F71" s="4">
         <f t="shared" si="6"/>
-        <v>40.000000000000014</v>
-      </c>
-      <c r="F71" t="s">
+        <v>0.66666666666666685</v>
+      </c>
+      <c r="G71" t="s">
         <v>97</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>29</v>
       </c>
-      <c r="H71" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>10</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3756,24 +3981,27 @@
         <f t="shared" si="5"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="5">
+        <v>120.00000000000006</v>
+      </c>
+      <c r="F72" s="4">
         <f t="shared" si="6"/>
-        <v>120.00000000000006</v>
-      </c>
-      <c r="F72" t="s">
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="G72" t="s">
         <v>98</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>24</v>
       </c>
-      <c r="H72" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3787,24 +4015,27 @@
         <f t="shared" si="5"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="5">
+        <v>19.999999999999929</v>
+      </c>
+      <c r="F73" s="4">
         <f t="shared" si="6"/>
-        <v>19.999999999999929</v>
-      </c>
-      <c r="F73" t="s">
+        <v>0.33333333333333215</v>
+      </c>
+      <c r="G73" t="s">
         <v>99</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>26</v>
       </c>
-      <c r="H73" t="s">
-        <v>10</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>10</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3818,24 +4049,27 @@
         <f t="shared" si="5"/>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="5">
+        <v>20.000000000000089</v>
+      </c>
+      <c r="F74" s="4">
         <f t="shared" si="6"/>
-        <v>20.000000000000089</v>
-      </c>
-      <c r="F74" t="s">
+        <v>0.33333333333333481</v>
+      </c>
+      <c r="G74" t="s">
         <v>100</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>24</v>
       </c>
-      <c r="H74" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -3849,24 +4083,27 @@
         <f t="shared" si="5"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="5">
+        <v>49.999999999999986</v>
+      </c>
+      <c r="F75" s="4">
         <f t="shared" si="6"/>
-        <v>49.999999999999986</v>
-      </c>
-      <c r="F75" t="s">
+        <v>0.83333333333333315</v>
+      </c>
+      <c r="G75" t="s">
         <v>101</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>49</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>17</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3880,24 +4117,27 @@
         <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="5">
+        <v>90</v>
+      </c>
+      <c r="F76" s="4">
         <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="F76" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="G76" t="s">
         <v>102</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>103</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>17</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3911,24 +4151,27 @@
         <f t="shared" si="5"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F77" s="4">
         <f t="shared" si="6"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F77" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G77" t="s">
         <v>104</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>35</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>17</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3942,24 +4185,27 @@
         <f t="shared" si="5"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="5">
+        <v>19.999999999999929</v>
+      </c>
+      <c r="F78" s="4">
         <f t="shared" si="6"/>
-        <v>19.999999999999929</v>
-      </c>
-      <c r="F78" t="s">
+        <v>0.33333333333333215</v>
+      </c>
+      <c r="G78" t="s">
         <v>105</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>53</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>17</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3973,24 +4219,27 @@
         <f t="shared" si="5"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="5">
+        <v>40.000000000000014</v>
+      </c>
+      <c r="F79" s="4">
         <f t="shared" si="6"/>
-        <v>40.000000000000014</v>
-      </c>
-      <c r="F79" t="s">
+        <v>0.66666666666666685</v>
+      </c>
+      <c r="G79" t="s">
         <v>106</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>37</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>17</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -4004,24 +4253,27 @@
         <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="5">
+        <v>90</v>
+      </c>
+      <c r="F80" s="4">
         <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="F80" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="G80" t="s">
         <v>107</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>39</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>17</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -4034,24 +4286,27 @@
       <c r="D81" s="3">
         <v>0.10416666666666667</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="5">
+        <v>150</v>
+      </c>
+      <c r="F81" s="4">
         <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-      <c r="F81" t="s">
+        <v>2.5</v>
+      </c>
+      <c r="G81" t="s">
         <v>108</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>43</v>
       </c>
-      <c r="H81" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>10</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -4064,24 +4319,27 @@
       <c r="D82" s="3">
         <v>0.2986111111111111</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="5">
+        <v>429.99999999999994</v>
+      </c>
+      <c r="F82" s="4">
         <f t="shared" si="6"/>
-        <v>429.99999999999994</v>
-      </c>
-      <c r="F82" t="s">
+        <v>7.1666666666666661</v>
+      </c>
+      <c r="G82" t="s">
         <v>109</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>45</v>
       </c>
-      <c r="H82" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -4095,24 +4353,27 @@
         <f>C84-C83</f>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="5">
+        <v>4.9999999999999822</v>
+      </c>
+      <c r="F83" s="4">
         <f t="shared" si="6"/>
-        <v>4.9999999999999822</v>
-      </c>
-      <c r="F83" t="s">
+        <v>8.3333333333333037E-2</v>
+      </c>
+      <c r="G83" t="s">
         <v>91</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>9</v>
       </c>
-      <c r="H83" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>10</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>46</v>
       </c>
@@ -4126,24 +4387,27 @@
         <f t="shared" ref="D84:D93" si="7">C85-C84</f>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="5">
+        <v>4.9999999999999822</v>
+      </c>
+      <c r="F84" s="4">
         <f t="shared" si="6"/>
-        <v>4.9999999999999822</v>
-      </c>
-      <c r="F84" t="s">
+        <v>8.3333333333333037E-2</v>
+      </c>
+      <c r="G84" t="s">
         <v>110</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>12</v>
       </c>
-      <c r="H84" t="s">
-        <v>10</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>46</v>
       </c>
@@ -4157,24 +4421,27 @@
         <f t="shared" si="7"/>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="5">
+        <v>20.000000000000089</v>
+      </c>
+      <c r="F85" s="4">
         <f t="shared" si="6"/>
-        <v>20.000000000000089</v>
-      </c>
-      <c r="F85" t="s">
+        <v>0.33333333333333481</v>
+      </c>
+      <c r="G85" t="s">
         <v>111</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>16</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>17</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>46</v>
       </c>
@@ -4188,24 +4455,27 @@
         <f t="shared" si="7"/>
         <v>0.3263888888888889</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="5">
+        <v>470.00000000000006</v>
+      </c>
+      <c r="F86" s="4">
         <f t="shared" si="6"/>
-        <v>470.00000000000006</v>
-      </c>
-      <c r="F86" t="s">
+        <v>7.8333333333333339</v>
+      </c>
+      <c r="G86" t="s">
         <v>112</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>47</v>
       </c>
-      <c r="H86" t="s">
-        <v>10</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>10</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>46</v>
       </c>
@@ -4219,24 +4489,27 @@
         <f t="shared" si="7"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="5">
+        <v>49.999999999999986</v>
+      </c>
+      <c r="F87" s="4">
         <f t="shared" si="6"/>
-        <v>49.999999999999986</v>
-      </c>
-      <c r="F87" t="s">
+        <v>0.83333333333333315</v>
+      </c>
+      <c r="G87" t="s">
         <v>101</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>49</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>17</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>46</v>
       </c>
@@ -4250,24 +4523,27 @@
         <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="5">
+        <v>90</v>
+      </c>
+      <c r="F88" s="4">
         <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="F88" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="G88" t="s">
         <v>102</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>103</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>17</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>46</v>
       </c>
@@ -4281,24 +4557,27 @@
         <f t="shared" si="7"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F89" s="4">
         <f t="shared" si="6"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F89" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G89" t="s">
         <v>104</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>35</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>17</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>46</v>
       </c>
@@ -4312,24 +4591,27 @@
         <f t="shared" si="7"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="5">
+        <v>19.999999999999929</v>
+      </c>
+      <c r="F90" s="4">
         <f t="shared" si="6"/>
-        <v>19.999999999999929</v>
-      </c>
-      <c r="F90" t="s">
+        <v>0.33333333333333215</v>
+      </c>
+      <c r="G90" t="s">
         <v>105</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>53</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>17</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>46</v>
       </c>
@@ -4343,24 +4625,27 @@
         <f t="shared" si="7"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="5">
+        <v>40.000000000000014</v>
+      </c>
+      <c r="F91" s="4">
         <f t="shared" si="6"/>
-        <v>40.000000000000014</v>
-      </c>
-      <c r="F91" t="s">
+        <v>0.66666666666666685</v>
+      </c>
+      <c r="G91" t="s">
         <v>106</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>83</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>17</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>46</v>
       </c>
@@ -4374,24 +4659,27 @@
         <f t="shared" si="7"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="5">
+        <v>70.000000000000071</v>
+      </c>
+      <c r="F92" s="4">
         <f t="shared" si="6"/>
-        <v>70.000000000000071</v>
-      </c>
-      <c r="F92" t="s">
+        <v>1.1666666666666679</v>
+      </c>
+      <c r="G92" t="s">
         <v>107</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>39</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>17</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>46</v>
       </c>
@@ -4405,24 +4693,27 @@
         <f t="shared" si="7"/>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="5">
+        <v>109.99999999999993</v>
+      </c>
+      <c r="F93" s="4">
         <f t="shared" si="6"/>
-        <v>109.99999999999993</v>
-      </c>
-      <c r="F93" t="s">
+        <v>1.8333333333333321</v>
+      </c>
+      <c r="G93" t="s">
         <v>113</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>55</v>
       </c>
-      <c r="H93" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I93" t="s">
+        <v>10</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>46</v>
       </c>
@@ -4435,24 +4726,27 @@
       <c r="D94" s="3">
         <v>0.34027777777777773</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="5">
+        <v>489.99999999999994</v>
+      </c>
+      <c r="F94" s="4">
         <f t="shared" si="6"/>
-        <v>489.99999999999994</v>
-      </c>
-      <c r="F94" t="s">
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="G94" t="s">
         <v>114</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>45</v>
       </c>
-      <c r="H94" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -4466,24 +4760,27 @@
         <f>C96-C95</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="5">
+        <v>9.9999999999999645</v>
+      </c>
+      <c r="F95" s="4">
         <f t="shared" si="6"/>
-        <v>9.9999999999999645</v>
-      </c>
-      <c r="F95" t="s">
+        <v>0.16666666666666607</v>
+      </c>
+      <c r="G95" t="s">
         <v>115</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>9</v>
       </c>
-      <c r="H95" t="s">
-        <v>10</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>10</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -4497,24 +4794,27 @@
         <f t="shared" ref="D96:D110" si="8">C97-C96</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="5">
+        <v>9.9999999999999645</v>
+      </c>
+      <c r="F96" s="4">
         <f t="shared" si="6"/>
-        <v>9.9999999999999645</v>
-      </c>
-      <c r="F96" t="s">
+        <v>0.16666666666666607</v>
+      </c>
+      <c r="G96" t="s">
         <v>116</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>14</v>
       </c>
-      <c r="H96" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>10</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -4528,24 +4828,27 @@
         <f t="shared" si="8"/>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="5">
+        <v>15.000000000000027</v>
+      </c>
+      <c r="F97" s="4">
         <f t="shared" si="6"/>
-        <v>15.000000000000027</v>
-      </c>
-      <c r="F97" t="s">
+        <v>0.25000000000000044</v>
+      </c>
+      <c r="G97" t="s">
         <v>117</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>16</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>17</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -4559,24 +4862,27 @@
         <f t="shared" si="8"/>
         <v>1.8749999999999989E-2</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="5">
+        <v>26.999999999999986</v>
+      </c>
+      <c r="F98" s="4">
         <f t="shared" si="6"/>
-        <v>26.999999999999986</v>
-      </c>
-      <c r="F98" t="s">
+        <v>0.44999999999999979</v>
+      </c>
+      <c r="G98" t="s">
         <v>118</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>20</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>17</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -4590,24 +4896,27 @@
         <f t="shared" si="8"/>
         <v>0.10277777777777775</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="5">
+        <v>147.99999999999994</v>
+      </c>
+      <c r="F99" s="4">
         <f t="shared" si="6"/>
-        <v>147.99999999999994</v>
-      </c>
-      <c r="F99" t="s">
+        <v>2.4666666666666659</v>
+      </c>
+      <c r="G99" t="s">
         <v>119</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>24</v>
       </c>
-      <c r="H99" t="s">
-        <v>10</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>10</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -4621,24 +4930,27 @@
         <f t="shared" si="8"/>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="5">
+        <v>20.000000000000089</v>
+      </c>
+      <c r="F100" s="4">
         <f t="shared" si="6"/>
-        <v>20.000000000000089</v>
-      </c>
-      <c r="F100" t="s">
+        <v>0.33333333333333481</v>
+      </c>
+      <c r="G100" t="s">
         <v>120</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>26</v>
       </c>
-      <c r="H100" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>10</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -4652,24 +4964,27 @@
         <f t="shared" si="8"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="5">
+        <v>60.000000000000028</v>
+      </c>
+      <c r="F101" s="4">
         <f t="shared" si="6"/>
-        <v>60.000000000000028</v>
-      </c>
-      <c r="F101" t="s">
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="G101" t="s">
         <v>121</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>24</v>
       </c>
-      <c r="H101" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -4683,24 +4998,27 @@
         <f t="shared" si="8"/>
         <v>4.8611111111111049E-2</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="5">
+        <v>69.999999999999915</v>
+      </c>
+      <c r="F102" s="4">
         <f t="shared" si="6"/>
-        <v>69.999999999999915</v>
-      </c>
-      <c r="F102" t="s">
+        <v>1.1666666666666652</v>
+      </c>
+      <c r="G102" t="s">
         <v>122</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>29</v>
       </c>
-      <c r="H102" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>10</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -4714,24 +5032,27 @@
         <f t="shared" si="8"/>
         <v>7.6388888888888951E-2</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="5">
+        <v>110.00000000000009</v>
+      </c>
+      <c r="F103" s="4">
         <f t="shared" si="6"/>
-        <v>110.00000000000009</v>
-      </c>
-      <c r="F103" t="s">
+        <v>1.8333333333333348</v>
+      </c>
+      <c r="G103" t="s">
         <v>123</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>24</v>
       </c>
-      <c r="H103" t="s">
-        <v>10</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>10</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -4745,24 +5066,27 @@
         <f t="shared" si="8"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="5">
+        <v>19.999999999999929</v>
+      </c>
+      <c r="F104" s="4">
         <f t="shared" si="6"/>
-        <v>19.999999999999929</v>
-      </c>
-      <c r="F104" t="s">
+        <v>0.33333333333333215</v>
+      </c>
+      <c r="G104" t="s">
         <v>124</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>26</v>
       </c>
-      <c r="H104" t="s">
-        <v>10</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>10</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -4776,24 +5100,27 @@
         <f t="shared" si="8"/>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="5">
+        <v>20.000000000000089</v>
+      </c>
+      <c r="F105" s="4">
         <f t="shared" si="6"/>
-        <v>20.000000000000089</v>
-      </c>
-      <c r="F105" t="s">
+        <v>0.33333333333333481</v>
+      </c>
+      <c r="G105" t="s">
         <v>125</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>24</v>
       </c>
-      <c r="H105" t="s">
-        <v>10</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -4807,24 +5134,27 @@
         <f t="shared" si="8"/>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="5">
+        <v>109.99999999999993</v>
+      </c>
+      <c r="F106" s="4">
         <f t="shared" si="6"/>
-        <v>109.99999999999993</v>
-      </c>
-      <c r="F106" t="s">
+        <v>1.8333333333333321</v>
+      </c>
+      <c r="G106" t="s">
         <v>126</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>49</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>17</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -4838,24 +5168,27 @@
         <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="5">
+        <v>180</v>
+      </c>
+      <c r="F107" s="4">
         <f t="shared" si="6"/>
-        <v>180</v>
-      </c>
-      <c r="F107" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" t="s">
         <v>127</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>70</v>
       </c>
-      <c r="H107" t="s">
-        <v>10</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I107" t="s">
+        <v>10</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -4869,24 +5202,27 @@
         <f t="shared" si="8"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F108" s="4">
         <f t="shared" si="6"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F108" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G108" t="s">
         <v>128</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>129</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>17</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -4900,24 +5236,27 @@
         <f t="shared" si="8"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="5">
+        <v>60.000000000000107</v>
+      </c>
+      <c r="F109" s="4">
         <f t="shared" si="6"/>
-        <v>60.000000000000107</v>
-      </c>
-      <c r="F109" t="s">
+        <v>1.0000000000000018</v>
+      </c>
+      <c r="G109" t="s">
         <v>130</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>72</v>
       </c>
-      <c r="H109" t="s">
-        <v>10</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>10</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -4931,24 +5270,27 @@
         <f t="shared" si="8"/>
         <v>4.0972222222222188E-2</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="5">
+        <v>58.99999999999995</v>
+      </c>
+      <c r="F110" s="4">
         <f t="shared" si="6"/>
-        <v>58.99999999999995</v>
-      </c>
-      <c r="F110" t="s">
+        <v>0.9833333333333325</v>
+      </c>
+      <c r="G110" t="s">
         <v>131</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>43</v>
       </c>
-      <c r="H110" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>10</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -4961,24 +5303,27 @@
       <c r="D111" s="3">
         <v>0.29236111111111113</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="5">
+        <v>421.00000000000006</v>
+      </c>
+      <c r="F111" s="4">
         <f t="shared" si="6"/>
-        <v>421.00000000000006</v>
-      </c>
-      <c r="F111" t="s">
+        <v>7.0166666666666675</v>
+      </c>
+      <c r="G111" t="s">
         <v>132</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>45</v>
       </c>
-      <c r="H111" t="s">
-        <v>10</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
+        <v>10</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>46</v>
       </c>
@@ -4992,24 +5337,27 @@
         <f>C113-C112</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="5">
+        <v>9.9999999999999645</v>
+      </c>
+      <c r="F112" s="4">
         <f t="shared" si="6"/>
-        <v>9.9999999999999645</v>
-      </c>
-      <c r="F112" t="s">
+        <v>0.16666666666666607</v>
+      </c>
+      <c r="G112" t="s">
         <v>115</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>9</v>
       </c>
-      <c r="H112" t="s">
-        <v>10</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I112" t="s">
+        <v>10</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>46</v>
       </c>
@@ -5023,24 +5371,27 @@
         <f t="shared" ref="D113:D120" si="9">C114-C113</f>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="5">
+        <v>15.000000000000027</v>
+      </c>
+      <c r="F113" s="4">
         <f t="shared" si="6"/>
-        <v>15.000000000000027</v>
-      </c>
-      <c r="F113" t="s">
+        <v>0.25000000000000044</v>
+      </c>
+      <c r="G113" t="s">
         <v>116</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>12</v>
       </c>
-      <c r="H113" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>10</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>46</v>
       </c>
@@ -5054,24 +5405,27 @@
         <f t="shared" si="9"/>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="5">
+        <v>15.000000000000027</v>
+      </c>
+      <c r="F114" s="4">
         <f t="shared" si="6"/>
-        <v>15.000000000000027</v>
-      </c>
-      <c r="F114" t="s">
+        <v>0.25000000000000044</v>
+      </c>
+      <c r="G114" t="s">
         <v>133</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>16</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>17</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>46</v>
       </c>
@@ -5085,24 +5439,27 @@
         <f t="shared" si="9"/>
         <v>0.3333333333333332</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="5">
+        <v>479.99999999999977</v>
+      </c>
+      <c r="F115" s="4">
         <f t="shared" si="6"/>
-        <v>479.99999999999977</v>
-      </c>
-      <c r="F115" t="s">
+        <v>7.9999999999999964</v>
+      </c>
+      <c r="G115" t="s">
         <v>134</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>47</v>
       </c>
-      <c r="H115" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I115" t="s">
+        <v>10</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>46</v>
       </c>
@@ -5116,24 +5473,27 @@
         <f t="shared" si="9"/>
         <v>2.7777777777777901E-2</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="5">
+        <v>40.000000000000178</v>
+      </c>
+      <c r="F116" s="4">
         <f t="shared" si="6"/>
-        <v>40.000000000000178</v>
-      </c>
-      <c r="F116" t="s">
+        <v>0.66666666666666963</v>
+      </c>
+      <c r="G116" t="s">
         <v>126</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>49</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>17</v>
       </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>46</v>
       </c>
@@ -5147,24 +5507,27 @@
         <f t="shared" si="9"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="5">
+        <v>70.000000000000071</v>
+      </c>
+      <c r="F117" s="4">
         <f t="shared" si="6"/>
-        <v>70.000000000000071</v>
-      </c>
-      <c r="F117" t="s">
+        <v>1.1666666666666679</v>
+      </c>
+      <c r="G117" t="s">
         <v>135</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>136</v>
       </c>
-      <c r="H117" t="s">
-        <v>10</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I117" t="s">
+        <v>10</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>46</v>
       </c>
@@ -5178,24 +5541,27 @@
         <f t="shared" si="9"/>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="5">
+        <v>109.99999999999993</v>
+      </c>
+      <c r="F118" s="4">
         <f t="shared" si="6"/>
-        <v>109.99999999999993</v>
-      </c>
-      <c r="F118" t="s">
+        <v>1.8333333333333321</v>
+      </c>
+      <c r="G118" t="s">
         <v>137</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>138</v>
       </c>
-      <c r="H118" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I118" t="s">
+        <v>10</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>46</v>
       </c>
@@ -5209,24 +5575,27 @@
         <f t="shared" si="9"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F119" s="4">
         <f t="shared" si="6"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F119" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G119" t="s">
         <v>139</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>140</v>
       </c>
-      <c r="H119" t="s">
-        <v>10</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I119" t="s">
+        <v>10</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>46</v>
       </c>
@@ -5240,24 +5609,27 @@
         <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120" s="5">
+        <v>90</v>
+      </c>
+      <c r="F120" s="4">
         <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="F120" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="G120" t="s">
         <v>128</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>129</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>17</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>46</v>
       </c>
@@ -5270,24 +5642,27 @@
       <c r="D121" s="3">
         <v>0.34375</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="5">
+        <v>495</v>
+      </c>
+      <c r="F121" s="4">
         <f t="shared" si="6"/>
-        <v>495</v>
-      </c>
-      <c r="F121" t="s">
+        <v>8.25</v>
+      </c>
+      <c r="G121" t="s">
         <v>141</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>45</v>
       </c>
-      <c r="H121" t="s">
-        <v>10</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I121" t="s">
+        <v>10</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -5301,24 +5676,27 @@
         <f>C123-C122</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="5">
+        <v>9.9999999999999645</v>
+      </c>
+      <c r="F122" s="4">
         <f t="shared" si="6"/>
-        <v>9.9999999999999645</v>
-      </c>
-      <c r="F122" t="s">
+        <v>0.16666666666666607</v>
+      </c>
+      <c r="G122" t="s">
         <v>142</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>9</v>
       </c>
-      <c r="H122" t="s">
-        <v>10</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>10</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -5332,24 +5710,27 @@
         <f t="shared" ref="D123:D141" si="10">C124-C123</f>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="5">
+        <v>15.000000000000027</v>
+      </c>
+      <c r="F123" s="4">
         <f t="shared" si="6"/>
-        <v>15.000000000000027</v>
-      </c>
-      <c r="F123" t="s">
+        <v>0.25000000000000044</v>
+      </c>
+      <c r="G123" t="s">
         <v>143</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>12</v>
       </c>
-      <c r="H123" t="s">
-        <v>10</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I123" t="s">
+        <v>10</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -5363,24 +5744,27 @@
         <f t="shared" si="10"/>
         <v>2.4305555555555525E-2</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124" s="5">
+        <v>34.999999999999957</v>
+      </c>
+      <c r="F124" s="4">
         <f t="shared" si="6"/>
-        <v>34.999999999999957</v>
-      </c>
-      <c r="F124" t="s">
+        <v>0.58333333333333259</v>
+      </c>
+      <c r="G124" t="s">
         <v>144</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>14</v>
       </c>
-      <c r="H124" t="s">
-        <v>10</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -5394,24 +5778,27 @@
         <f t="shared" si="10"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="5">
+        <v>9.9999999999999645</v>
+      </c>
+      <c r="F125" s="4">
         <f t="shared" si="6"/>
-        <v>9.9999999999999645</v>
-      </c>
-      <c r="F125" t="s">
+        <v>0.16666666666666607</v>
+      </c>
+      <c r="G125" t="s">
         <v>145</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>16</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>17</v>
       </c>
-      <c r="I125" t="s">
+      <c r="J125" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -5425,24 +5812,27 @@
         <f t="shared" si="10"/>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E126" s="5">
+        <v>15.000000000000027</v>
+      </c>
+      <c r="F126" s="4">
         <f t="shared" si="6"/>
-        <v>15.000000000000027</v>
-      </c>
-      <c r="F126" t="s">
+        <v>0.25000000000000044</v>
+      </c>
+      <c r="G126" t="s">
         <v>146</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>20</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>17</v>
       </c>
-      <c r="I126" t="s">
+      <c r="J126" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -5456,24 +5846,27 @@
         <f t="shared" si="10"/>
         <v>5.2083333333333315E-2</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127" s="5">
+        <v>74.999999999999972</v>
+      </c>
+      <c r="F127" s="4">
         <f t="shared" si="6"/>
-        <v>74.999999999999972</v>
-      </c>
-      <c r="F127" t="s">
+        <v>1.2499999999999996</v>
+      </c>
+      <c r="G127" t="s">
         <v>147</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>22</v>
       </c>
-      <c r="H127" t="s">
-        <v>10</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I127" t="s">
+        <v>10</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -5487,24 +5880,27 @@
         <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E128" s="5">
+        <v>90</v>
+      </c>
+      <c r="F128" s="4">
         <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="F128" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="G128" t="s">
         <v>148</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>24</v>
       </c>
-      <c r="H128" t="s">
-        <v>10</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I128" t="s">
+        <v>10</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -5518,24 +5914,27 @@
         <f t="shared" si="10"/>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E129" s="5">
+        <v>20.000000000000089</v>
+      </c>
+      <c r="F129" s="4">
         <f t="shared" si="6"/>
-        <v>20.000000000000089</v>
-      </c>
-      <c r="F129" t="s">
+        <v>0.33333333333333481</v>
+      </c>
+      <c r="G129" t="s">
         <v>149</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>26</v>
       </c>
-      <c r="H129" t="s">
-        <v>10</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I129" t="s">
+        <v>10</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -5549,24 +5948,27 @@
         <f t="shared" si="10"/>
         <v>4.8611111111111105E-2</v>
       </c>
-      <c r="E130" s="4">
+      <c r="E130" s="5">
+        <v>69.999999999999986</v>
+      </c>
+      <c r="F130" s="4">
         <f t="shared" si="6"/>
-        <v>69.999999999999986</v>
-      </c>
-      <c r="F130" t="s">
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="G130" t="s">
         <v>150</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>24</v>
       </c>
-      <c r="H130" t="s">
-        <v>10</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I130" t="s">
+        <v>10</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -5580,24 +5982,27 @@
         <f t="shared" si="10"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="E131" s="4">
-        <f t="shared" ref="E131:E194" si="11">D131*24*60</f>
+      <c r="E131" s="5">
         <v>29.999999999999893</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="4">
+        <f t="shared" ref="F131:F194" si="11">E131/60</f>
+        <v>0.49999999999999822</v>
+      </c>
+      <c r="G131" t="s">
         <v>151</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>29</v>
       </c>
-      <c r="H131" t="s">
-        <v>10</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I131" t="s">
+        <v>10</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -5611,24 +6016,27 @@
         <f t="shared" si="10"/>
         <v>9.7222222222222321E-2</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E132" s="5">
+        <v>140.00000000000014</v>
+      </c>
+      <c r="F132" s="4">
         <f t="shared" si="11"/>
-        <v>140.00000000000014</v>
-      </c>
-      <c r="F132" t="s">
+        <v>2.3333333333333357</v>
+      </c>
+      <c r="G132" t="s">
         <v>152</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>24</v>
       </c>
-      <c r="H132" t="s">
-        <v>10</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I132" t="s">
+        <v>10</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -5642,24 +6050,27 @@
         <f t="shared" si="10"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E133" s="5">
+        <v>19.999999999999929</v>
+      </c>
+      <c r="F133" s="4">
         <f t="shared" si="11"/>
-        <v>19.999999999999929</v>
-      </c>
-      <c r="F133" t="s">
+        <v>0.33333333333333215</v>
+      </c>
+      <c r="G133" t="s">
         <v>153</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>26</v>
       </c>
-      <c r="H133" t="s">
-        <v>10</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I133" t="s">
+        <v>10</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -5673,24 +6084,27 @@
         <f t="shared" si="10"/>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134" s="5">
+        <v>20.000000000000089</v>
+      </c>
+      <c r="F134" s="4">
         <f t="shared" si="11"/>
-        <v>20.000000000000089</v>
-      </c>
-      <c r="F134" t="s">
+        <v>0.33333333333333481</v>
+      </c>
+      <c r="G134" t="s">
         <v>154</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>24</v>
       </c>
-      <c r="H134" t="s">
-        <v>10</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I134" t="s">
+        <v>10</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -5704,24 +6118,27 @@
         <f t="shared" si="10"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135" s="5">
+        <v>49.999999999999986</v>
+      </c>
+      <c r="F135" s="4">
         <f t="shared" si="11"/>
-        <v>49.999999999999986</v>
-      </c>
-      <c r="F135" t="s">
+        <v>0.83333333333333315</v>
+      </c>
+      <c r="G135" t="s">
         <v>155</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>49</v>
       </c>
-      <c r="H135" t="s">
+      <c r="I135" t="s">
         <v>17</v>
       </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -5735,55 +6152,61 @@
         <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136" s="5">
+        <v>90</v>
+      </c>
+      <c r="F136" s="4">
         <f t="shared" si="11"/>
-        <v>90</v>
-      </c>
-      <c r="F136" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="G136" t="s">
         <v>156</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>24</v>
       </c>
-      <c r="H136" t="s">
+      <c r="I136" t="s">
         <v>17</v>
       </c>
-      <c r="I136" t="s">
+      <c r="J136" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>7</v>
-      </c>
-      <c r="B137" s="1">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="7">
         <v>44512</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="8">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="9">
         <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137" s="10">
+        <v>90</v>
+      </c>
+      <c r="F137" s="11">
         <f t="shared" si="11"/>
-        <v>90</v>
-      </c>
-      <c r="F137" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="G137" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I137">
+      <c r="J137" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -5797,24 +6220,27 @@
         <f t="shared" si="10"/>
         <v>3.4722222222222099E-2</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138" s="5">
+        <v>49.999999999999822</v>
+      </c>
+      <c r="F138" s="4">
         <f t="shared" si="11"/>
-        <v>49.999999999999822</v>
-      </c>
-      <c r="F138" t="s">
+        <v>0.83333333333333037</v>
+      </c>
+      <c r="G138" t="s">
         <v>158</v>
       </c>
-      <c r="G138" t="s">
+      <c r="H138" t="s">
         <v>37</v>
       </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>17</v>
       </c>
-      <c r="I138" t="s">
+      <c r="J138" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -5828,24 +6254,27 @@
         <f t="shared" si="10"/>
         <v>2.7777777777777901E-2</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="5">
+        <v>40.000000000000178</v>
+      </c>
+      <c r="F139" s="4">
         <f t="shared" si="11"/>
-        <v>40.000000000000178</v>
-      </c>
-      <c r="F139" t="s">
+        <v>0.66666666666666963</v>
+      </c>
+      <c r="G139" t="s">
         <v>159</v>
       </c>
-      <c r="G139" t="s">
+      <c r="H139" t="s">
         <v>39</v>
       </c>
-      <c r="H139" t="s">
+      <c r="I139" t="s">
         <v>17</v>
       </c>
-      <c r="I139" t="s">
+      <c r="J139" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -5859,24 +6288,27 @@
         <f t="shared" si="10"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F140" s="4">
         <f t="shared" si="11"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F140" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G140" t="s">
         <v>160</v>
       </c>
-      <c r="G140" t="s">
+      <c r="H140" t="s">
         <v>41</v>
       </c>
-      <c r="H140" t="s">
-        <v>10</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I140" t="s">
+        <v>10</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -5890,24 +6322,27 @@
         <f t="shared" si="10"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141" s="5">
+        <v>70.000000000000071</v>
+      </c>
+      <c r="F141" s="4">
         <f t="shared" si="11"/>
-        <v>70.000000000000071</v>
-      </c>
-      <c r="F141" t="s">
+        <v>1.1666666666666679</v>
+      </c>
+      <c r="G141" t="s">
         <v>161</v>
       </c>
-      <c r="G141" t="s">
+      <c r="H141" t="s">
         <v>43</v>
       </c>
-      <c r="H141" t="s">
-        <v>10</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I141" t="s">
+        <v>10</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -5920,24 +6355,27 @@
       <c r="D142" s="3">
         <v>0.34722222222222227</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E142" s="5">
+        <v>500.00000000000006</v>
+      </c>
+      <c r="F142" s="4">
         <f t="shared" si="11"/>
-        <v>500.00000000000006</v>
-      </c>
-      <c r="F142" t="s">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G142" t="s">
         <v>162</v>
       </c>
-      <c r="G142" t="s">
+      <c r="H142" t="s">
         <v>45</v>
       </c>
-      <c r="H142" t="s">
-        <v>10</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I142" t="s">
+        <v>10</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>46</v>
       </c>
@@ -5951,24 +6389,27 @@
         <f>C144-C143</f>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143" s="5">
+        <v>4.9999999999999822</v>
+      </c>
+      <c r="F143" s="4">
         <f t="shared" si="11"/>
-        <v>4.9999999999999822</v>
-      </c>
-      <c r="F143" t="s">
+        <v>8.3333333333333037E-2</v>
+      </c>
+      <c r="G143" t="s">
         <v>163</v>
       </c>
-      <c r="G143" t="s">
+      <c r="H143" t="s">
         <v>9</v>
       </c>
-      <c r="H143" t="s">
-        <v>10</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I143" t="s">
+        <v>10</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>46</v>
       </c>
@@ -5982,24 +6423,27 @@
         <f t="shared" ref="D144:D152" si="12">C145-C144</f>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E144" s="5">
+        <v>40.000000000000014</v>
+      </c>
+      <c r="F144" s="4">
         <f t="shared" si="11"/>
-        <v>40.000000000000014</v>
-      </c>
-      <c r="F144" t="s">
+        <v>0.66666666666666685</v>
+      </c>
+      <c r="G144" t="s">
         <v>164</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>12</v>
       </c>
-      <c r="H144" t="s">
-        <v>10</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I144" t="s">
+        <v>10</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>46</v>
       </c>
@@ -6013,24 +6457,27 @@
         <f t="shared" si="12"/>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145" s="5">
+        <v>20.000000000000089</v>
+      </c>
+      <c r="F145" s="4">
         <f t="shared" si="11"/>
-        <v>20.000000000000089</v>
-      </c>
-      <c r="F145" t="s">
+        <v>0.33333333333333481</v>
+      </c>
+      <c r="G145" t="s">
         <v>145</v>
       </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>16</v>
       </c>
-      <c r="H145" t="s">
+      <c r="I145" t="s">
         <v>17</v>
       </c>
-      <c r="I145" t="s">
+      <c r="J145" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -6044,24 +6491,27 @@
         <f t="shared" si="12"/>
         <v>0.3333333333333332</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E146" s="5">
+        <v>479.99999999999977</v>
+      </c>
+      <c r="F146" s="4">
         <f t="shared" si="11"/>
-        <v>479.99999999999977</v>
-      </c>
-      <c r="F146" t="s">
+        <v>7.9999999999999964</v>
+      </c>
+      <c r="G146" t="s">
         <v>165</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>47</v>
       </c>
-      <c r="H146" t="s">
-        <v>10</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I146" t="s">
+        <v>10</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>46</v>
       </c>
@@ -6075,24 +6525,27 @@
         <f t="shared" si="12"/>
         <v>1.3888888888889062E-2</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147" s="5">
+        <v>20.000000000000249</v>
+      </c>
+      <c r="F147" s="4">
         <f t="shared" si="11"/>
-        <v>20.000000000000249</v>
-      </c>
-      <c r="F147" t="s">
+        <v>0.33333333333333748</v>
+      </c>
+      <c r="G147" t="s">
         <v>166</v>
       </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
         <v>49</v>
       </c>
-      <c r="H147" t="s">
+      <c r="I147" t="s">
         <v>17</v>
       </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>46</v>
       </c>
@@ -6106,55 +6559,61 @@
         <f t="shared" si="12"/>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148" s="5">
+        <v>109.99999999999993</v>
+      </c>
+      <c r="F148" s="4">
         <f t="shared" si="11"/>
-        <v>109.99999999999993</v>
-      </c>
-      <c r="F148" t="s">
+        <v>1.8333333333333321</v>
+      </c>
+      <c r="G148" t="s">
         <v>167</v>
       </c>
-      <c r="G148" t="s">
+      <c r="H148" t="s">
         <v>103</v>
       </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
         <v>17</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="7">
         <v>44512</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="8">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="9">
         <f t="shared" si="12"/>
-        <v>5.5555555555555469E-2</v>
-      </c>
-      <c r="E149" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E149" s="10">
+        <v>90</v>
+      </c>
+      <c r="F149" s="11">
         <f t="shared" si="11"/>
-        <v>79.999999999999872</v>
-      </c>
-      <c r="F149" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G149" t="s">
+      <c r="H149" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I149">
+      <c r="J149" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>46</v>
       </c>
@@ -6162,30 +6621,33 @@
         <v>44512</v>
       </c>
       <c r="C150" s="2">
-        <v>0.82638888888888884</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D150" s="3">
         <f t="shared" si="12"/>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="E150" s="4">
+        <v>3.4722222222222099E-2</v>
+      </c>
+      <c r="E150" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F150" s="4">
         <f t="shared" si="11"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F150" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G150" t="s">
         <v>168</v>
       </c>
-      <c r="G150" t="s">
+      <c r="H150" t="s">
         <v>169</v>
       </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>17</v>
       </c>
-      <c r="I150" t="s">
+      <c r="J150" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>46</v>
       </c>
@@ -6199,24 +6661,27 @@
         <f t="shared" si="12"/>
         <v>2.7777777777777901E-2</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E151" s="5">
+        <v>40.000000000000178</v>
+      </c>
+      <c r="F151" s="4">
         <f t="shared" si="11"/>
-        <v>40.000000000000178</v>
-      </c>
-      <c r="F151" t="s">
+        <v>0.66666666666666963</v>
+      </c>
+      <c r="G151" t="s">
         <v>159</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>39</v>
       </c>
-      <c r="H151" t="s">
+      <c r="I151" t="s">
         <v>17</v>
       </c>
-      <c r="I151" t="s">
+      <c r="J151" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>46</v>
       </c>
@@ -6230,24 +6695,27 @@
         <f t="shared" si="12"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E152" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F152" s="4">
         <f t="shared" si="11"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F152" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G152" t="s">
         <v>160</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H152" t="s">
         <v>55</v>
       </c>
-      <c r="H152" t="s">
-        <v>10</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I152" t="s">
+        <v>10</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>46</v>
       </c>
@@ -6260,24 +6728,27 @@
       <c r="D153" s="3">
         <v>0.4548611111111111</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153" s="5">
+        <v>655</v>
+      </c>
+      <c r="F153" s="4">
         <f t="shared" si="11"/>
-        <v>655</v>
-      </c>
-      <c r="F153" t="s">
+        <v>10.916666666666666</v>
+      </c>
+      <c r="G153" t="s">
         <v>161</v>
       </c>
-      <c r="G153" t="s">
+      <c r="H153" t="s">
         <v>45</v>
       </c>
-      <c r="H153" t="s">
-        <v>10</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I153" t="s">
+        <v>10</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -6291,24 +6762,27 @@
         <f>C155-C154</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E154" s="5">
+        <v>9.9999999999999645</v>
+      </c>
+      <c r="F154" s="4">
         <f t="shared" si="11"/>
-        <v>9.9999999999999645</v>
-      </c>
-      <c r="F154" t="s">
+        <v>0.16666666666666607</v>
+      </c>
+      <c r="G154" t="s">
         <v>170</v>
       </c>
-      <c r="G154" t="s">
+      <c r="H154" t="s">
         <v>9</v>
       </c>
-      <c r="H154" t="s">
-        <v>10</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I154" t="s">
+        <v>10</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -6322,24 +6796,27 @@
         <f t="shared" ref="D155:D165" si="13">C156-C155</f>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155" s="5">
+        <v>20.000000000000089</v>
+      </c>
+      <c r="F155" s="4">
         <f t="shared" si="11"/>
-        <v>20.000000000000089</v>
-      </c>
-      <c r="F155" t="s">
+        <v>0.33333333333333481</v>
+      </c>
+      <c r="G155" t="s">
         <v>171</v>
       </c>
-      <c r="G155" t="s">
+      <c r="H155" t="s">
         <v>12</v>
       </c>
-      <c r="H155" t="s">
-        <v>10</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I155" t="s">
+        <v>10</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -6353,24 +6830,27 @@
         <f t="shared" si="13"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F156" s="4">
         <f t="shared" si="11"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F156" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G156" t="s">
         <v>172</v>
       </c>
-      <c r="G156" t="s">
+      <c r="H156" t="s">
         <v>173</v>
       </c>
-      <c r="H156" t="s">
-        <v>10</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I156" t="s">
+        <v>10</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -6384,55 +6864,61 @@
         <f t="shared" si="13"/>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E157" s="5">
+        <v>20.000000000000089</v>
+      </c>
+      <c r="F157" s="4">
         <f t="shared" si="11"/>
-        <v>20.000000000000089</v>
-      </c>
-      <c r="F157" t="s">
+        <v>0.33333333333333481</v>
+      </c>
+      <c r="G157" t="s">
         <v>174</v>
       </c>
-      <c r="G157" t="s">
+      <c r="H157" t="s">
         <v>175</v>
       </c>
-      <c r="H157" t="s">
+      <c r="I157" t="s">
         <v>17</v>
       </c>
-      <c r="I157" t="s">
+      <c r="J157" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>7</v>
-      </c>
-      <c r="B158" s="1">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" s="7">
         <v>44513</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="8">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158" s="9">
         <f t="shared" si="13"/>
         <v>9.0277777777777735E-2</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E158" s="10">
+        <v>129.99999999999994</v>
+      </c>
+      <c r="F158" s="11">
         <f t="shared" si="11"/>
-        <v>129.99999999999994</v>
-      </c>
-      <c r="F158" t="s">
+        <v>2.1666666666666656</v>
+      </c>
+      <c r="G158" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G158" t="s">
+      <c r="H158" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I158">
+      <c r="J158" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -6446,24 +6932,27 @@
         <f t="shared" si="13"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E159" s="5">
+        <v>45</v>
+      </c>
+      <c r="F159" s="4">
         <f t="shared" si="11"/>
-        <v>45</v>
-      </c>
-      <c r="F159" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="G159" t="s">
         <v>177</v>
       </c>
-      <c r="G159" t="s">
+      <c r="H159" t="s">
         <v>178</v>
       </c>
-      <c r="H159" t="s">
+      <c r="I159" t="s">
         <v>17</v>
       </c>
-      <c r="I159" t="s">
+      <c r="J159" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -6477,55 +6966,61 @@
         <f t="shared" si="13"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E160" s="5">
+        <v>45</v>
+      </c>
+      <c r="F160" s="4">
         <f t="shared" si="11"/>
-        <v>45</v>
-      </c>
-      <c r="F160" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="G160" t="s">
         <v>179</v>
       </c>
-      <c r="G160" t="s">
+      <c r="H160" t="s">
         <v>180</v>
       </c>
-      <c r="H160" t="s">
+      <c r="I160" t="s">
         <v>17</v>
       </c>
-      <c r="I160" t="s">
+      <c r="J160" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>7</v>
-      </c>
-      <c r="B161" s="1">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" s="7">
         <v>44513</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="8">
         <v>0.5625</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161" s="9">
         <f t="shared" si="13"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="E161" s="4">
+      <c r="E161" s="10">
+        <v>149.99999999999994</v>
+      </c>
+      <c r="F161" s="11">
         <f t="shared" si="11"/>
-        <v>149.99999999999994</v>
-      </c>
-      <c r="F161" t="s">
+        <v>2.4999999999999991</v>
+      </c>
+      <c r="G161" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G161" t="s">
+      <c r="H161" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H161" t="s">
+      <c r="I161" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I161">
+      <c r="J161" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -6539,24 +7034,27 @@
         <f t="shared" si="13"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="E162" s="4">
+      <c r="E162" s="5">
+        <v>30.000000000000053</v>
+      </c>
+      <c r="F162" s="4">
         <f t="shared" si="11"/>
-        <v>30.000000000000053</v>
-      </c>
-      <c r="F162" t="s">
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="G162" t="s">
         <v>182</v>
       </c>
-      <c r="G162" t="s">
+      <c r="H162" t="s">
         <v>53</v>
       </c>
-      <c r="H162" t="s">
+      <c r="I162" t="s">
         <v>17</v>
       </c>
-      <c r="I162" t="s">
+      <c r="J162" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -6570,24 +7068,27 @@
         <f t="shared" si="13"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E163" s="5">
+        <v>210.00000000000006</v>
+      </c>
+      <c r="F163" s="4">
         <f t="shared" si="11"/>
-        <v>210.00000000000006</v>
-      </c>
-      <c r="F163" t="s">
+        <v>3.5000000000000009</v>
+      </c>
+      <c r="G163" t="s">
         <v>183</v>
       </c>
-      <c r="G163" t="s">
+      <c r="H163" t="s">
         <v>184</v>
       </c>
-      <c r="H163" t="s">
+      <c r="I163" t="s">
         <v>17</v>
       </c>
-      <c r="I163">
+      <c r="J163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -6601,24 +7102,27 @@
         <f t="shared" si="13"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E164" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F164" s="4">
         <f t="shared" si="11"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F164" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G164" t="s">
         <v>185</v>
       </c>
-      <c r="G164" t="s">
+      <c r="H164" t="s">
         <v>186</v>
       </c>
-      <c r="H164" t="s">
+      <c r="I164" t="s">
         <v>17</v>
       </c>
-      <c r="I164" t="s">
+      <c r="J164" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -6632,24 +7136,27 @@
         <f t="shared" si="13"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E165" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F165" s="4">
         <f t="shared" si="11"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F165" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G165" t="s">
         <v>187</v>
       </c>
-      <c r="G165" t="s">
+      <c r="H165" t="s">
         <v>39</v>
       </c>
-      <c r="H165" t="s">
+      <c r="I165" t="s">
         <v>17</v>
       </c>
-      <c r="I165" t="s">
+      <c r="J165" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -6662,24 +7169,27 @@
       <c r="D166" s="3">
         <v>0.125</v>
       </c>
-      <c r="E166" s="4">
+      <c r="E166" s="5">
+        <v>180</v>
+      </c>
+      <c r="F166" s="4">
         <f t="shared" si="11"/>
-        <v>180</v>
-      </c>
-      <c r="F166" t="s">
+        <v>3</v>
+      </c>
+      <c r="G166" t="s">
         <v>188</v>
       </c>
-      <c r="G166" t="s">
+      <c r="H166" t="s">
         <v>189</v>
       </c>
-      <c r="H166" t="s">
-        <v>10</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I166" t="s">
+        <v>10</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -6692,24 +7202,27 @@
       <c r="D167" s="3">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167" s="5">
+        <v>420</v>
+      </c>
+      <c r="F167" s="4">
         <f t="shared" si="11"/>
-        <v>420</v>
-      </c>
-      <c r="F167" t="s">
+        <v>7</v>
+      </c>
+      <c r="G167" t="s">
         <v>190</v>
       </c>
-      <c r="G167" t="s">
+      <c r="H167" t="s">
         <v>45</v>
       </c>
-      <c r="H167" t="s">
-        <v>10</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I167" t="s">
+        <v>10</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>46</v>
       </c>
@@ -6723,24 +7236,27 @@
         <f>C169-C168</f>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="E168" s="4">
+      <c r="E168" s="5">
+        <v>4.9999999999999822</v>
+      </c>
+      <c r="F168" s="4">
         <f t="shared" si="11"/>
-        <v>4.9999999999999822</v>
-      </c>
-      <c r="F168" t="s">
+        <v>8.3333333333333037E-2</v>
+      </c>
+      <c r="G168" t="s">
         <v>191</v>
       </c>
-      <c r="G168" t="s">
+      <c r="H168" t="s">
         <v>9</v>
       </c>
-      <c r="H168" t="s">
-        <v>10</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I168" t="s">
+        <v>10</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>46</v>
       </c>
@@ -6754,55 +7270,61 @@
         <f t="shared" ref="D169:D178" si="14">C170-C169</f>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="E169" s="4">
+      <c r="E169" s="5">
+        <v>20.000000000000089</v>
+      </c>
+      <c r="F169" s="4">
         <f t="shared" si="11"/>
-        <v>20.000000000000089</v>
-      </c>
-      <c r="F169" t="s">
+        <v>0.33333333333333481</v>
+      </c>
+      <c r="G169" t="s">
         <v>174</v>
       </c>
-      <c r="G169" t="s">
+      <c r="H169" t="s">
         <v>12</v>
       </c>
-      <c r="H169" t="s">
-        <v>10</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="I169" t="s">
+        <v>10</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="7">
         <v>44513</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="8">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D170" s="9">
         <f t="shared" si="14"/>
         <v>9.0277777777777735E-2</v>
       </c>
-      <c r="E170" s="4">
+      <c r="E170" s="10">
+        <v>129.99999999999994</v>
+      </c>
+      <c r="F170" s="11">
         <f t="shared" si="11"/>
-        <v>129.99999999999994</v>
-      </c>
-      <c r="F170" t="s">
+        <v>2.1666666666666656</v>
+      </c>
+      <c r="G170" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G170" t="s">
+      <c r="H170" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H170" t="s">
+      <c r="I170" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I170">
+      <c r="J170" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -6816,24 +7338,27 @@
         <f t="shared" si="14"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E171" s="4">
+      <c r="E171" s="5">
+        <v>45</v>
+      </c>
+      <c r="F171" s="4">
         <f t="shared" si="11"/>
-        <v>45</v>
-      </c>
-      <c r="F171" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="G171" t="s">
         <v>177</v>
       </c>
-      <c r="G171" t="s">
+      <c r="H171" t="s">
         <v>192</v>
       </c>
-      <c r="H171" t="s">
+      <c r="I171" t="s">
         <v>17</v>
       </c>
-      <c r="I171" t="s">
+      <c r="J171" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>46</v>
       </c>
@@ -6847,55 +7372,61 @@
         <f t="shared" si="14"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E172" s="4">
+      <c r="E172" s="5">
+        <v>45</v>
+      </c>
+      <c r="F172" s="4">
         <f t="shared" si="11"/>
-        <v>45</v>
-      </c>
-      <c r="F172" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="G172" t="s">
         <v>179</v>
       </c>
-      <c r="G172" t="s">
+      <c r="H172" t="s">
         <v>180</v>
       </c>
-      <c r="H172" t="s">
+      <c r="I172" t="s">
         <v>17</v>
       </c>
-      <c r="I172" t="s">
+      <c r="J172" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="7">
         <v>44513</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173" s="8">
         <v>0.5625</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D173" s="9">
         <f t="shared" si="14"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="E173" s="4">
+      <c r="E173" s="10">
+        <v>149.99999999999994</v>
+      </c>
+      <c r="F173" s="11">
         <f t="shared" si="11"/>
-        <v>149.99999999999994</v>
-      </c>
-      <c r="F173" t="s">
+        <v>2.4999999999999991</v>
+      </c>
+      <c r="G173" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G173" t="s">
+      <c r="H173" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H173" t="s">
+      <c r="I173" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I173">
+      <c r="J173" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>46</v>
       </c>
@@ -6909,24 +7440,27 @@
         <f t="shared" si="14"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E174" s="5">
+        <v>30.000000000000053</v>
+      </c>
+      <c r="F174" s="4">
         <f t="shared" si="11"/>
-        <v>30.000000000000053</v>
-      </c>
-      <c r="F174" t="s">
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="G174" t="s">
         <v>182</v>
       </c>
-      <c r="G174" t="s">
+      <c r="H174" t="s">
         <v>53</v>
       </c>
-      <c r="H174" t="s">
+      <c r="I174" t="s">
         <v>17</v>
       </c>
-      <c r="I174" t="s">
+      <c r="J174" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>46</v>
       </c>
@@ -6940,24 +7474,27 @@
         <f t="shared" si="14"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="E175" s="4">
+      <c r="E175" s="5">
+        <v>210.00000000000006</v>
+      </c>
+      <c r="F175" s="4">
         <f t="shared" si="11"/>
-        <v>210.00000000000006</v>
-      </c>
-      <c r="F175" t="s">
+        <v>3.5000000000000009</v>
+      </c>
+      <c r="G175" t="s">
         <v>183</v>
       </c>
-      <c r="G175" t="s">
+      <c r="H175" t="s">
         <v>184</v>
       </c>
-      <c r="H175" t="s">
+      <c r="I175" t="s">
         <v>17</v>
       </c>
-      <c r="I175">
+      <c r="J175">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>46</v>
       </c>
@@ -6971,24 +7508,27 @@
         <f t="shared" si="14"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E176" s="4">
+      <c r="E176" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F176" s="4">
         <f t="shared" si="11"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F176" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G176" t="s">
         <v>185</v>
       </c>
-      <c r="G176" t="s">
+      <c r="H176" t="s">
         <v>192</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I176" t="s">
         <v>17</v>
       </c>
-      <c r="I176" t="s">
+      <c r="J176" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>46</v>
       </c>
@@ -7002,24 +7542,27 @@
         <f t="shared" si="14"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E177" s="4">
+      <c r="E177" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F177" s="4">
         <f t="shared" si="11"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F177" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G177" t="s">
         <v>187</v>
       </c>
-      <c r="G177" t="s">
+      <c r="H177" t="s">
         <v>39</v>
       </c>
-      <c r="H177" t="s">
+      <c r="I177" t="s">
         <v>17</v>
       </c>
-      <c r="I177" t="s">
+      <c r="J177" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>46</v>
       </c>
@@ -7033,24 +7576,27 @@
         <f t="shared" si="14"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="E178" s="4">
+      <c r="E178" s="5">
+        <v>60.000000000000107</v>
+      </c>
+      <c r="F178" s="4">
         <f t="shared" si="11"/>
-        <v>60.000000000000107</v>
-      </c>
-      <c r="F178" t="s">
+        <v>1.0000000000000018</v>
+      </c>
+      <c r="G178" t="s">
         <v>188</v>
       </c>
-      <c r="G178" t="s">
+      <c r="H178" t="s">
         <v>192</v>
       </c>
-      <c r="H178" t="s">
-        <v>10</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I178" t="s">
+        <v>10</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>46</v>
       </c>
@@ -7063,24 +7609,27 @@
       <c r="D179" s="3">
         <v>0.43402777777777773</v>
       </c>
-      <c r="E179" s="4">
+      <c r="E179" s="5">
+        <v>625</v>
+      </c>
+      <c r="F179" s="4">
         <f t="shared" si="11"/>
-        <v>625</v>
-      </c>
-      <c r="F179" t="s">
+        <v>10.416666666666666</v>
+      </c>
+      <c r="G179" t="s">
         <v>193</v>
       </c>
-      <c r="G179" t="s">
+      <c r="H179" t="s">
         <v>45</v>
       </c>
-      <c r="H179" t="s">
-        <v>10</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I179" t="s">
+        <v>10</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -7094,24 +7643,27 @@
         <f>C181-C180</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="E180" s="4">
+      <c r="E180" s="5">
+        <v>9.9999999999999645</v>
+      </c>
+      <c r="F180" s="4">
         <f t="shared" si="11"/>
-        <v>9.9999999999999645</v>
-      </c>
-      <c r="F180" t="s">
+        <v>0.16666666666666607</v>
+      </c>
+      <c r="G180" t="s">
         <v>194</v>
       </c>
-      <c r="G180" t="s">
+      <c r="H180" t="s">
         <v>9</v>
       </c>
-      <c r="H180" t="s">
-        <v>10</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I180" t="s">
+        <v>10</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -7125,24 +7677,27 @@
         <f t="shared" ref="D181:D193" si="15">C182-C181</f>
         <v>1.3888888888888951E-2</v>
       </c>
-      <c r="E181" s="4">
+      <c r="E181" s="5">
+        <v>20.000000000000089</v>
+      </c>
+      <c r="F181" s="4">
         <f t="shared" si="11"/>
-        <v>20.000000000000089</v>
-      </c>
-      <c r="F181" t="s">
+        <v>0.33333333333333481</v>
+      </c>
+      <c r="G181" t="s">
         <v>195</v>
       </c>
-      <c r="G181" t="s">
+      <c r="H181" t="s">
         <v>12</v>
       </c>
-      <c r="H181" t="s">
-        <v>10</v>
-      </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I181" t="s">
+        <v>10</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -7156,24 +7711,27 @@
         <f t="shared" si="15"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E182" s="4">
+      <c r="E182" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F182" s="4">
         <f t="shared" si="11"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F182" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G182" t="s">
         <v>196</v>
       </c>
-      <c r="G182" t="s">
+      <c r="H182" t="s">
         <v>173</v>
       </c>
-      <c r="H182" t="s">
-        <v>10</v>
-      </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I182" t="s">
+        <v>10</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -7187,24 +7745,27 @@
         <f t="shared" si="15"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="E183" s="4">
+      <c r="E183" s="5">
+        <v>30.000000000000053</v>
+      </c>
+      <c r="F183" s="4">
         <f t="shared" si="11"/>
-        <v>30.000000000000053</v>
-      </c>
-      <c r="F183" t="s">
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="G183" t="s">
         <v>197</v>
       </c>
-      <c r="G183" t="s">
+      <c r="H183" t="s">
         <v>175</v>
       </c>
-      <c r="H183" t="s">
+      <c r="I183" t="s">
         <v>17</v>
       </c>
-      <c r="I183" t="s">
+      <c r="J183" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -7218,24 +7779,27 @@
         <f t="shared" si="15"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E184" s="4">
+      <c r="E184" s="5">
+        <v>90</v>
+      </c>
+      <c r="F184" s="4">
         <f t="shared" si="11"/>
-        <v>90</v>
-      </c>
-      <c r="F184" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="G184" t="s">
         <v>198</v>
       </c>
-      <c r="G184" t="s">
+      <c r="H184" t="s">
         <v>199</v>
       </c>
-      <c r="H184" t="s">
+      <c r="I184" t="s">
         <v>17</v>
       </c>
-      <c r="I184" t="s">
+      <c r="J184" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -7249,24 +7813,27 @@
         <f t="shared" si="15"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="E185" s="4">
+      <c r="E185" s="5">
+        <v>29.999999999999972</v>
+      </c>
+      <c r="F185" s="4">
         <f t="shared" si="11"/>
-        <v>29.999999999999972</v>
-      </c>
-      <c r="F185" t="s">
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="G185" t="s">
         <v>200</v>
       </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
         <v>43</v>
       </c>
-      <c r="H185" t="s">
+      <c r="I185" t="s">
         <v>17</v>
       </c>
-      <c r="I185" t="s">
+      <c r="J185" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -7280,24 +7847,27 @@
         <f t="shared" si="15"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E186" s="4">
+      <c r="E186" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F186" s="4">
         <f t="shared" si="11"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F186" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G186" t="s">
         <v>201</v>
       </c>
-      <c r="G186" t="s">
+      <c r="H186" t="s">
         <v>178</v>
       </c>
-      <c r="H186" t="s">
+      <c r="I186" t="s">
         <v>17</v>
       </c>
-      <c r="I186" t="s">
+      <c r="J186" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -7311,24 +7881,27 @@
         <f t="shared" si="15"/>
         <v>3.4722222222222321E-2</v>
       </c>
-      <c r="E187" s="4">
+      <c r="E187" s="5">
+        <v>50.000000000000142</v>
+      </c>
+      <c r="F187" s="4">
         <f t="shared" si="11"/>
-        <v>50.000000000000142</v>
-      </c>
-      <c r="F187" t="s">
+        <v>0.8333333333333357</v>
+      </c>
+      <c r="G187" t="s">
         <v>202</v>
       </c>
-      <c r="G187" t="s">
+      <c r="H187" t="s">
         <v>180</v>
       </c>
-      <c r="H187" t="s">
+      <c r="I187" t="s">
         <v>17</v>
       </c>
-      <c r="I187" t="s">
+      <c r="J187" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -7342,24 +7915,27 @@
         <f t="shared" si="15"/>
         <v>4.8611111111111049E-2</v>
       </c>
-      <c r="E188" s="4">
+      <c r="E188" s="5">
+        <v>69.999999999999915</v>
+      </c>
+      <c r="F188" s="4">
         <f t="shared" si="11"/>
-        <v>69.999999999999915</v>
-      </c>
-      <c r="F188" t="s">
+        <v>1.1666666666666652</v>
+      </c>
+      <c r="G188" t="s">
         <v>203</v>
       </c>
-      <c r="G188" t="s">
+      <c r="H188" t="s">
         <v>184</v>
       </c>
-      <c r="H188" t="s">
+      <c r="I188" t="s">
         <v>17</v>
       </c>
-      <c r="I188">
+      <c r="J188">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -7373,24 +7949,27 @@
         <f t="shared" si="15"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E189" s="4">
+      <c r="E189" s="5">
+        <v>120.00000000000006</v>
+      </c>
+      <c r="F189" s="4">
         <f t="shared" si="11"/>
-        <v>120.00000000000006</v>
-      </c>
-      <c r="F189" t="s">
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="G189" t="s">
         <v>204</v>
       </c>
-      <c r="G189" t="s">
+      <c r="H189" t="s">
         <v>205</v>
       </c>
-      <c r="H189" t="s">
-        <v>10</v>
-      </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I189" t="s">
+        <v>10</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -7404,24 +7983,27 @@
         <f t="shared" si="15"/>
         <v>0.125</v>
       </c>
-      <c r="E190" s="4">
+      <c r="E190" s="5">
+        <v>180</v>
+      </c>
+      <c r="F190" s="4">
         <f t="shared" si="11"/>
-        <v>180</v>
-      </c>
-      <c r="F190" t="s">
+        <v>3</v>
+      </c>
+      <c r="G190" t="s">
         <v>206</v>
       </c>
-      <c r="G190" t="s">
+      <c r="H190" t="s">
         <v>184</v>
       </c>
-      <c r="H190" t="s">
+      <c r="I190" t="s">
         <v>17</v>
       </c>
-      <c r="I190">
+      <c r="J190">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -7435,24 +8017,27 @@
         <f t="shared" si="15"/>
         <v>3.4722222222222099E-2</v>
       </c>
-      <c r="E191" s="4">
+      <c r="E191" s="5">
+        <v>49.999999999999822</v>
+      </c>
+      <c r="F191" s="4">
         <f t="shared" si="11"/>
-        <v>49.999999999999822</v>
-      </c>
-      <c r="F191" t="s">
+        <v>0.83333333333333037</v>
+      </c>
+      <c r="G191" t="s">
         <v>207</v>
       </c>
-      <c r="G191" t="s">
+      <c r="H191" t="s">
         <v>37</v>
       </c>
-      <c r="H191" t="s">
+      <c r="I191" t="s">
         <v>17</v>
       </c>
-      <c r="I191" t="s">
+      <c r="J191" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -7466,24 +8051,27 @@
         <f t="shared" si="15"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="E192" s="4">
+      <c r="E192" s="5">
+        <v>70.000000000000071</v>
+      </c>
+      <c r="F192" s="4">
         <f t="shared" si="11"/>
-        <v>70.000000000000071</v>
-      </c>
-      <c r="F192" t="s">
+        <v>1.1666666666666679</v>
+      </c>
+      <c r="G192" t="s">
         <v>208</v>
       </c>
-      <c r="G192" t="s">
+      <c r="H192" t="s">
         <v>39</v>
       </c>
-      <c r="H192" t="s">
+      <c r="I192" t="s">
         <v>17</v>
       </c>
-      <c r="I192" t="s">
+      <c r="J192" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -7497,24 +8085,27 @@
         <f t="shared" si="15"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="E193" s="4">
+      <c r="E193" s="5">
+        <v>60.000000000000107</v>
+      </c>
+      <c r="F193" s="4">
         <f t="shared" si="11"/>
-        <v>60.000000000000107</v>
-      </c>
-      <c r="F193" t="s">
+        <v>1.0000000000000018</v>
+      </c>
+      <c r="G193" t="s">
         <v>209</v>
       </c>
-      <c r="G193" t="s">
+      <c r="H193" t="s">
         <v>43</v>
       </c>
-      <c r="H193" t="s">
-        <v>10</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I193" t="s">
+        <v>10</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -7527,24 +8118,27 @@
       <c r="D194" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E194" s="4">
+      <c r="E194" s="5">
+        <v>480</v>
+      </c>
+      <c r="F194" s="4">
         <f t="shared" si="11"/>
-        <v>480</v>
-      </c>
-      <c r="F194" t="s">
+        <v>8</v>
+      </c>
+      <c r="G194" t="s">
         <v>210</v>
       </c>
-      <c r="G194" t="s">
+      <c r="H194" t="s">
         <v>45</v>
       </c>
-      <c r="H194" t="s">
-        <v>10</v>
-      </c>
-      <c r="I194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I194" t="s">
+        <v>10</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>46</v>
       </c>
@@ -7558,24 +8152,27 @@
         <f>C196-C195</f>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="E195" s="4">
-        <f t="shared" ref="E195:E207" si="16">D195*24*60</f>
+      <c r="E195" s="5">
         <v>4.9999999999999822</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="4">
+        <f t="shared" ref="F195:F207" si="16">E195/60</f>
+        <v>8.3333333333333037E-2</v>
+      </c>
+      <c r="G195" t="s">
         <v>211</v>
       </c>
-      <c r="G195" t="s">
+      <c r="H195" t="s">
         <v>9</v>
       </c>
-      <c r="H195" t="s">
-        <v>10</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I195" t="s">
+        <v>10</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>46</v>
       </c>
@@ -7589,24 +8186,27 @@
         <f t="shared" ref="D196:D206" si="17">C197-C196</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="E196" s="4">
+      <c r="E196" s="5">
+        <v>30.000000000000053</v>
+      </c>
+      <c r="F196" s="4">
         <f t="shared" si="16"/>
-        <v>30.000000000000053</v>
-      </c>
-      <c r="F196" t="s">
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="G196" t="s">
         <v>197</v>
       </c>
-      <c r="G196" t="s">
+      <c r="H196" t="s">
         <v>12</v>
       </c>
-      <c r="H196" t="s">
-        <v>10</v>
-      </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I196" t="s">
+        <v>10</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>46</v>
       </c>
@@ -7620,24 +8220,27 @@
         <f t="shared" si="17"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E197" s="4">
+      <c r="E197" s="5">
+        <v>90</v>
+      </c>
+      <c r="F197" s="4">
         <f t="shared" si="16"/>
-        <v>90</v>
-      </c>
-      <c r="F197" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="G197" t="s">
         <v>198</v>
       </c>
-      <c r="G197" t="s">
+      <c r="H197" t="s">
         <v>199</v>
       </c>
-      <c r="H197" t="s">
+      <c r="I197" t="s">
         <v>17</v>
       </c>
-      <c r="I197" t="s">
+      <c r="J197" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>46</v>
       </c>
@@ -7651,24 +8254,27 @@
         <f t="shared" si="17"/>
         <v>6.2499999999999944E-2</v>
       </c>
-      <c r="E198" s="4">
+      <c r="E198" s="5">
+        <v>89.999999999999915</v>
+      </c>
+      <c r="F198" s="4">
         <f t="shared" si="16"/>
-        <v>89.999999999999915</v>
-      </c>
-      <c r="F198" t="s">
+        <v>1.4999999999999987</v>
+      </c>
+      <c r="G198" t="s">
         <v>200</v>
       </c>
-      <c r="G198" t="s">
+      <c r="H198" t="s">
         <v>192</v>
       </c>
-      <c r="H198" t="s">
+      <c r="I198" t="s">
         <v>17</v>
       </c>
-      <c r="I198" t="s">
+      <c r="J198" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>46</v>
       </c>
@@ -7682,24 +8288,27 @@
         <f t="shared" si="17"/>
         <v>3.4722222222222321E-2</v>
       </c>
-      <c r="E199" s="4">
+      <c r="E199" s="5">
+        <v>50.000000000000142</v>
+      </c>
+      <c r="F199" s="4">
         <f t="shared" si="16"/>
-        <v>50.000000000000142</v>
-      </c>
-      <c r="F199" t="s">
+        <v>0.8333333333333357</v>
+      </c>
+      <c r="G199" t="s">
         <v>202</v>
       </c>
-      <c r="G199" t="s">
+      <c r="H199" t="s">
         <v>180</v>
       </c>
-      <c r="H199" t="s">
+      <c r="I199" t="s">
         <v>17</v>
       </c>
-      <c r="I199" t="s">
+      <c r="J199" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>46</v>
       </c>
@@ -7713,24 +8322,27 @@
         <f t="shared" si="17"/>
         <v>4.8611111111111049E-2</v>
       </c>
-      <c r="E200" s="4">
+      <c r="E200" s="5">
+        <v>69.999999999999915</v>
+      </c>
+      <c r="F200" s="4">
         <f t="shared" si="16"/>
-        <v>69.999999999999915</v>
-      </c>
-      <c r="F200" t="s">
+        <v>1.1666666666666652</v>
+      </c>
+      <c r="G200" t="s">
         <v>203</v>
       </c>
-      <c r="G200" t="s">
+      <c r="H200" t="s">
         <v>184</v>
       </c>
-      <c r="H200" t="s">
+      <c r="I200" t="s">
         <v>17</v>
       </c>
-      <c r="I200">
+      <c r="J200">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>46</v>
       </c>
@@ -7744,24 +8356,27 @@
         <f t="shared" si="17"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E201" s="4">
+      <c r="E201" s="5">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F201" s="4">
         <f t="shared" si="16"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="F201" t="s">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G201" t="s">
         <v>204</v>
       </c>
-      <c r="G201" t="s">
+      <c r="H201" t="s">
         <v>212</v>
       </c>
-      <c r="H201" t="s">
-        <v>10</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I201" t="s">
+        <v>10</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>46</v>
       </c>
@@ -7775,24 +8390,27 @@
         <f t="shared" si="17"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="E202" s="4">
+      <c r="E202" s="5">
+        <v>60.000000000000107</v>
+      </c>
+      <c r="F202" s="4">
         <f t="shared" si="16"/>
-        <v>60.000000000000107</v>
-      </c>
-      <c r="F202" t="s">
+        <v>1.0000000000000018</v>
+      </c>
+      <c r="G202" t="s">
         <v>213</v>
       </c>
-      <c r="G202" t="s">
+      <c r="H202" t="s">
         <v>53</v>
       </c>
-      <c r="H202" t="s">
+      <c r="I202" t="s">
         <v>17</v>
       </c>
-      <c r="I202" t="s">
+      <c r="J202" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>46</v>
       </c>
@@ -7806,24 +8424,27 @@
         <f t="shared" si="17"/>
         <v>0.125</v>
       </c>
-      <c r="E203" s="4">
+      <c r="E203" s="5">
+        <v>180</v>
+      </c>
+      <c r="F203" s="4">
         <f t="shared" si="16"/>
-        <v>180</v>
-      </c>
-      <c r="F203" t="s">
+        <v>3</v>
+      </c>
+      <c r="G203" t="s">
         <v>206</v>
       </c>
-      <c r="G203" t="s">
+      <c r="H203" t="s">
         <v>184</v>
       </c>
-      <c r="H203" t="s">
+      <c r="I203" t="s">
         <v>17</v>
       </c>
-      <c r="I203">
+      <c r="J203">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>46</v>
       </c>
@@ -7837,24 +8458,27 @@
         <f t="shared" si="17"/>
         <v>3.4722222222222099E-2</v>
       </c>
-      <c r="E204" s="4">
+      <c r="E204" s="5">
+        <v>49.999999999999822</v>
+      </c>
+      <c r="F204" s="4">
         <f t="shared" si="16"/>
-        <v>49.999999999999822</v>
-      </c>
-      <c r="F204" t="s">
+        <v>0.83333333333333037</v>
+      </c>
+      <c r="G204" t="s">
         <v>207</v>
       </c>
-      <c r="G204" t="s">
+      <c r="H204" t="s">
         <v>192</v>
       </c>
-      <c r="H204" t="s">
+      <c r="I204" t="s">
         <v>17</v>
       </c>
-      <c r="I204" t="s">
+      <c r="J204" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>46</v>
       </c>
@@ -7868,24 +8492,27 @@
         <f t="shared" si="17"/>
         <v>2.7777777777777901E-2</v>
       </c>
-      <c r="E205" s="4">
+      <c r="E205" s="5">
+        <v>40.000000000000178</v>
+      </c>
+      <c r="F205" s="4">
         <f t="shared" si="16"/>
-        <v>40.000000000000178</v>
-      </c>
-      <c r="F205" t="s">
+        <v>0.66666666666666963</v>
+      </c>
+      <c r="G205" t="s">
         <v>208</v>
       </c>
-      <c r="G205" t="s">
+      <c r="H205" t="s">
         <v>39</v>
       </c>
-      <c r="H205" t="s">
+      <c r="I205" t="s">
         <v>17</v>
       </c>
-      <c r="I205" t="s">
+      <c r="J205" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>46</v>
       </c>
@@ -7899,24 +8526,27 @@
         <f t="shared" si="17"/>
         <v>3.4722222222222099E-2</v>
       </c>
-      <c r="E206" s="4">
+      <c r="E206" s="5">
+        <v>49.999999999999822</v>
+      </c>
+      <c r="F206" s="4">
         <f t="shared" si="16"/>
-        <v>49.999999999999822</v>
-      </c>
-      <c r="F206" t="s">
+        <v>0.83333333333333037</v>
+      </c>
+      <c r="G206" t="s">
         <v>214</v>
       </c>
-      <c r="G206" t="s">
+      <c r="H206" t="s">
         <v>192</v>
       </c>
-      <c r="H206" t="s">
-        <v>10</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I206" t="s">
+        <v>10</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>46</v>
       </c>
@@ -7929,20 +8559,23 @@
       <c r="D207" s="3">
         <v>0.375</v>
       </c>
-      <c r="E207" s="4">
+      <c r="E207" s="5">
+        <v>540</v>
+      </c>
+      <c r="F207" s="4">
         <f t="shared" si="16"/>
-        <v>540</v>
-      </c>
-      <c r="F207" t="s">
+        <v>9</v>
+      </c>
+      <c r="G207" t="s">
         <v>215</v>
       </c>
-      <c r="G207" t="s">
+      <c r="H207" t="s">
         <v>45</v>
       </c>
-      <c r="H207" t="s">
-        <v>10</v>
-      </c>
-      <c r="I207">
+      <c r="I207" t="s">
+        <v>10</v>
+      </c>
+      <c r="J207">
         <v>0</v>
       </c>
     </row>
